--- a/biology/Botanique/Xanthoria_ulophyllodes/Xanthoria_ulophyllodes.xlsx
+++ b/biology/Botanique/Xanthoria_ulophyllodes/Xanthoria_ulophyllodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xanthoria ulophyllodes est une espèce de lichens saxicoles de la famille des Teloschistaceae[1]&lt;/references&gt;. Il a été officiellement décrit comme nouvelle espèce en 1931 par le lichénologue finlandais Veli Räsänen (d)[2]. En Amérique du Nord, l'un des noms vernaculaires de cette espèce est powdery sunburst lichen[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xanthoria ulophyllodes est une espèce de lichens saxicoles de la famille des Teloschistaceae&lt;/references&gt;. Il a été officiellement décrit comme nouvelle espèce en 1931 par le lichénologue finlandais Veli Räsänen (d). En Amérique du Nord, l'un des noms vernaculaires de cette espèce est powdery sunburst lichen.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (5 janvier 2024)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (5 janvier 2024) :
 Xanthoria ulophyllodes var. subsorediosa (Räsänen) Poelt &amp; Petutsching
 Xanthoria ulophyllodes var. ulophyllodes</t>
         </is>
@@ -543,10 +557,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Xanthoria ulophyllodes Räsänen[4].
-Xanthoria ulophyllodes a pour synonymes[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Xanthoria ulophyllodes Räsänen.
+Xanthoria ulophyllodes a pour synonymes :
 Oxneria coppinsii S.Y.Kondr. &amp; Kärnefelt
 Oxneria ulophyllodes (Räsänen) S.Y.Kondr. &amp; Kärnefelt
 Xanthomendoza ulophyllodes (Räsänen) Søchting, Kärnefelt &amp; S.Y.Kondr.</t>
